--- a/yardPrinterIP.xlsx
+++ b/yardPrinterIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abo2114\Documents\GitHub\printerCheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asian\Documents\GitHub\printerCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C73B8-B7FF-47AF-9039-71558A6D8BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24930"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,26 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>HP</t>
   </si>
   <si>
-    <t>172.24.33.181</t>
-  </si>
-  <si>
-    <t>60th St 12th Flr</t>
-  </si>
-  <si>
     <t>Ricoh</t>
   </si>
   <si>
-    <t>172.24.34.27</t>
-  </si>
-  <si>
-    <t>172.24.33.42</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -51,12 +40,24 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>123.45.67.89</t>
+  </si>
+  <si>
+    <t>123.45.67.98</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>test 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,11 +368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,13 +384,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -397,32 +398,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
